--- a/Config/Datas/BuffData.xlsx
+++ b/Config/Datas/BuffData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/goho/Documents/GitHub/goblin/Config/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2697EC-B494-9D4E-9BB4-B55694300FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B301E2E0-B5F1-1440-8E2C-AC389F2484F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>##var</t>
   </si>
@@ -81,7 +81,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Enchants</t>
+    <t>EnchantScales</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性赋予 (千分比)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnchantMains</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4|6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3|500</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -101,6 +117,7 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="黑体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -521,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
@@ -532,11 +549,11 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="12.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="23.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.5" style="2" customWidth="1"/>
+    <col min="4" max="5" width="24.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -547,13 +564,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -569,8 +589,11 @@
       <c r="E2" s="9" t="s">
         <v>11</v>
       </c>
+      <c r="F2" s="9" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -583,16 +606,25 @@
       <c r="D3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="B4" s="2">
         <v>1000001</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>10</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
